--- a/content/excel/Fichas década5 (1930).xlsx
+++ b/content/excel/Fichas década5 (1930).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="412">
   <si>
     <t>What starts off as a conventional travelogue turns into a satirical portrait of the town of Nice on the French Cote d'Azur, especially its wealthy inhabitants. Written by Michael Brooke &lt;michael@everyman.demon.co.uk&gt;  http://www.imdb.com/title/tt0021576/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2079,9 +2079,6 @@
     <t>Úrsula Mares/Esteban Terán (Área de contexto)</t>
   </si>
   <si>
-    <t>Última modificación: 11/03/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un pioniere del cinema científico. Roberto Omegna 1876-1948 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2189,9 +2186,6 @@
     <t>No se encuentra físicamente, esta en línea con buena resolución: https://www.youtube.com/watch?v=TY26e1aBfgg</t>
   </si>
   <si>
-    <t>Última modificación: 28/01/2015</t>
-  </si>
-  <si>
     <t>Documental sobre las minas de carbón en Inglaterra. (FILMAFFINITY)</t>
   </si>
   <si>
@@ -2226,9 +2220,6 @@
   </si>
   <si>
     <t>Úrsula Mares /Elisa D. Espinosa</t>
-  </si>
-  <si>
-    <t>20/02/2013  - 30/01/2015</t>
   </si>
   <si>
     <t>José Val del Omar</t>
@@ -2396,6 +2387,12 @@
   </si>
   <si>
     <t>Reproductor VHS, DVD y monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/03/2013</t>
   </si>
 </sst>
 </file>
@@ -3113,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3313,7 +3310,7 @@
         <v>1930</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
@@ -3359,7 +3356,7 @@
         <v>1935</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3409,7 +3406,7 @@
         <v>1934</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
@@ -3417,7 +3414,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -3427,7 +3424,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -3501,7 +3498,7 @@
         <v>1931</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
@@ -3551,7 +3548,7 @@
         <v>1932</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>85</v>
@@ -3607,28 +3604,28 @@
         <v>1936</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
@@ -3638,7 +3635,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3661,7 +3658,7 @@
         <v>1936</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
@@ -3681,7 +3678,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7" t="s">
@@ -3690,7 +3687,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,7 +3708,7 @@
         <v>1938</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
@@ -3733,7 +3730,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7" t="s">
@@ -3742,7 +3739,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -3759,13 +3756,13 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>1937</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
@@ -3773,7 +3770,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3788,15 +3785,15 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,7 +3816,7 @@
         <v>1934</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
@@ -3867,7 +3864,7 @@
         <v>1939</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
@@ -3883,7 +3880,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -3902,7 +3899,7 @@
         <v>268</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>103</v>
@@ -3917,7 +3914,7 @@
         <v>1939</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
@@ -3936,7 +3933,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -3948,10 +3945,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3960,10 +3957,10 @@
         <v>30</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
@@ -3996,7 +3993,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4007,11 +4004,11 @@
         <v>1938</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -4062,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="75" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4179,13 +4176,13 @@
         <v>309</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>48</v>
@@ -4273,7 +4270,7 @@
         <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>47</v>
@@ -4408,10 +4405,10 @@
         <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -4427,15 +4424,15 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -4445,7 +4442,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4482,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="C12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4603,7 +4600,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4614,7 +4611,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4642,7 +4639,7 @@
         <v>309</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>292</v>
@@ -4667,7 +4664,7 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,7 +4707,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>297</v>
@@ -4736,7 +4733,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>51</v>
@@ -4792,7 +4789,7 @@
         <v>272</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4818,7 +4815,7 @@
         <v>224</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4870,7 +4867,7 @@
         <v>119</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>209</v>
@@ -4885,7 +4882,7 @@
         <v>208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
@@ -4919,16 +4916,16 @@
         <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>266</v>
@@ -4938,7 +4935,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>263</v>
@@ -4951,14 +4948,14 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7">
         <v>1934</v>
@@ -4969,7 +4966,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
@@ -4979,22 +4976,22 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -5160,10 +5157,10 @@
         <v>254</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>80</v>
@@ -5337,7 +5334,7 @@
         <v>76</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>5</v>
@@ -5372,7 +5369,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>6</v>
@@ -5444,10 +5441,10 @@
         <v>277</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>278</v>
@@ -5481,10 +5478,10 @@
         <v>76</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>80</v>
@@ -5582,15 +5579,15 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
@@ -5610,7 +5607,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>77</v>
@@ -5645,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>77</v>
@@ -5655,26 +5652,26 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5895,11 +5892,11 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
@@ -5910,11 +5907,11 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -5992,7 +5989,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6048,7 +6045,7 @@
         <v>222</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -6103,13 +6100,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -6117,7 +6114,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -6142,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6227,7 +6224,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6405,7 +6402,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6413,17 +6410,17 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>362</v>
+      <c r="F17" s="38">
+        <v>40572</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6431,14 +6428,14 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="F18" s="38">
         <v>39953</v>

--- a/content/excel/Fichas década5 (1930).xlsx
+++ b/content/excel/Fichas década5 (1930).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="585" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="412">
-  <si>
-    <t>What starts off as a conventional travelogue turns into a satirical portrait of the town of Nice on the French Cote d'Azur, especially its wealthy inhabitants. Written by Michael Brooke &lt;michael@everyman.demon.co.uk&gt;  http://www.imdb.com/title/tt0021576/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="425">
   <si>
     <t>1 dvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +103,6 @@
   </si>
   <si>
     <t>http://www.valdelomar.com/inicio.php</t>
-  </si>
-  <si>
-    <t>Úrsula Mares</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Adaptación de la norma ISAD (G)</t>
@@ -1044,22 +1036,6 @@
     <t>1932-1933</t>
   </si>
   <si>
-    <t>Grabación de campo, puesta en escena, cartografía</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Francés</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Español</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Música de época</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trilogía de Nuremberg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1757,10 +1733,6 @@
     <t>British Commercial Gas Association (BCGA)</t>
   </si>
   <si>
-    <t>Grabación de campo, intertítulos, registros aéreos (fotografía aérea)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1970,10 +1942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adolfo Hitler, Hermann Göring, Max Amann</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cara de carbón</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1998,10 +1966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Español</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>La natation par Jean Taris</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2039,10 +2003,6 @@
   </si>
   <si>
     <t>Triumph des Willens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Núremberg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2260,9 +2220,6 @@
     <t>Cavalcanti Auden Brtitten</t>
   </si>
   <si>
-    <t xml:space="preserve">Pawley &amp;Sullivan </t>
-  </si>
-  <si>
     <t>A. Birck</t>
   </si>
   <si>
@@ -2393,13 +2350,88 @@
   </si>
   <si>
     <t xml:space="preserve"> 11/03/2013</t>
+  </si>
+  <si>
+    <t>Conmovedora visión de Niza, la atmósfera y el tipo de vida de la ciudad. La película se centra principalmente en el contraste entre los ricos ociosos que toman el sol y disfrutan de los lujos de hoteles y casinos, y los barrios pobres de Niza. (FILMAFFINITY)</t>
+  </si>
+  <si>
+    <t>Úrsula Mares/Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t>Esteban Terán (Área de contexto), Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo Hitler, Hermann Göring, Max Amann, Partido del Reich, Paul von Hindenburg, Wagner, Alfred Rosenberg, Otto Dietrich, Fritz Todt, Wilhelm Reinhardt, Richard Walther Darré, Juluis Streicher, Robert Ley, Joseph Goebbels, Konstantine Hierl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núremberg, Selva Negra, Pomerania, Dresden, Langemark, Tannenberg, Líege, Verdúm, Somme, Danubio, Flanders, </t>
+  </si>
+  <si>
+    <t>Música de época, grabaciones de campo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabación de campo, intertítulos, registros aéreos (fotografía aérea), música de época, </t>
+  </si>
+  <si>
+    <t>Francia,</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>Esteban Terán (Área de contexto), Penelope Ubaldo</t>
+  </si>
+  <si>
+    <t>Jean Taris, nadador olímpico.</t>
+  </si>
+  <si>
+    <t>Pierre Braunberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre Unik, Sanchez Ventura, </t>
+  </si>
+  <si>
+    <t>Grabación de campo, puesta en escena, cartografía, animación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabación de campo, musica de época, cartografía, </t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>reportaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pawley &amp; Sullivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabación de campo, voz en off, narración, música de época, </t>
+  </si>
+  <si>
+    <t>1930-1940</t>
+  </si>
+  <si>
+    <t>Inglaterra: Londres, Escocia, Liverpool, Birmingham, Manchester, Bristol, Coventry, Stoke, Stafford, Holyhead, Hosuton Blasco,Devonshire, Leicester, Glasgow, Campbell,  .</t>
+  </si>
+  <si>
+    <t>Marjorie Lundstrom</t>
+  </si>
+  <si>
+    <t>Documental, grabación de campo, música de época, voz en off.</t>
+  </si>
+  <si>
+    <t>El dvd contiene además un documental "des idees, des hommes, des ouvres" duración 30'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2525,8 +2557,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2560,6 +2601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,10 +2694,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,6 +2780,13 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2775,7 +2830,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3110,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3145,13 +3201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3176,35 +3232,35 @@
     </row>
     <row r="2" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="V2" s="48"/>
+      <c r="J2" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="51"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -3212,118 +3268,118 @@
     </row>
     <row r="3" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>1930</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -3338,30 +3394,30 @@
     </row>
     <row r="5" spans="1:26" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>1935</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -3369,14 +3425,14 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -3386,35 +3442,35 @@
     </row>
     <row r="6" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>1934</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -3424,7 +3480,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -3434,41 +3490,41 @@
     </row>
     <row r="7" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>1935</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -3480,363 +3536,367 @@
     </row>
     <row r="8" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>1931</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7">
         <v>1932</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="Q9" s="45"/>
       <c r="R9" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="7" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>1936</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>1936</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>1938</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>1937</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>1934</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -3846,41 +3906,41 @@
     </row>
     <row r="15" spans="1:26" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H15" s="7">
         <v>1939</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -3888,37 +3948,37 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>1939</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -3927,13 +3987,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -3942,40 +4002,40 @@
     </row>
     <row r="17" spans="1:26" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3985,15 +4045,15 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4004,11 +4064,11 @@
         <v>1938</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -4059,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4076,13 +4136,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -4091,11 +4151,11 @@
     <row r="2" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
@@ -4103,39 +4163,39 @@
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4147,72 +4207,72 @@
     </row>
     <row r="5" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7">
         <v>1999</v>
@@ -4220,10 +4280,10 @@
     </row>
     <row r="8" spans="1:9" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4235,22 +4295,24 @@
     </row>
     <row r="9" spans="1:9" ht="210.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="28" t="s">
+        <v>412</v>
+      </c>
       <c r="E9" s="28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
         <v>1999</v>
@@ -4258,28 +4320,28 @@
     </row>
     <row r="10" spans="1:9" ht="188.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I10" s="7">
         <v>1999</v>
@@ -4287,68 +4349,68 @@
     </row>
     <row r="11" spans="1:9" ht="240.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="285" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
         <v>1999</v>
@@ -4356,45 +4418,45 @@
     </row>
     <row r="14" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I15" s="7">
         <v>1999</v>
@@ -4402,18 +4464,18 @@
     </row>
     <row r="16" spans="1:9" ht="161.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="35" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -4421,28 +4483,28 @@
     </row>
     <row r="17" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="42" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4479,8 +4541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="D7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4500,13 +4562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="50"/>
+      <c r="A1" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -4519,393 +4581,411 @@
       <c r="A2" s="19"/>
       <c r="B2" s="3"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>401</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7">
         <v>1930</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="7">
         <v>1935</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>292</v>
+        <v>336</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="F6" s="7">
         <v>1934</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="J8" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="K8" s="6"/>
+        <v>294</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="302.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="6"/>
+        <v>414</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="L9" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>420</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -4913,88 +4993,88 @@
     </row>
     <row r="16" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7">
         <v>1934</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
@@ -5008,7 +5088,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" tooltip="䠀琀琀瀀㨀⼀⼀眀眀眀⸀礀漀甀琀甀戀攀⸀挀漀洀⼀眀愀琀挀栀㼀瘀㴀搀搀琀倀䤀　㜀栀栀䄀㠀"/>
-    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5027,8 +5106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5051,13 +5130,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="21"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -5074,604 +5153,602 @@
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
-      <c r="E2" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="E2" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +5776,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5712,13 +5789,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -5729,27 +5806,27 @@
     </row>
     <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5757,10 +5834,10 @@
     </row>
     <row r="5" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5768,10 +5845,10 @@
     </row>
     <row r="6" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -5779,10 +5856,10 @@
     </row>
     <row r="7" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -5790,10 +5867,10 @@
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5801,10 +5878,10 @@
     </row>
     <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5812,10 +5889,10 @@
     </row>
     <row r="10" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5823,10 +5900,10 @@
     </row>
     <row r="11" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5834,10 +5911,10 @@
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5845,10 +5922,10 @@
     </row>
     <row r="13" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5856,10 +5933,10 @@
     </row>
     <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5867,10 +5944,10 @@
     </row>
     <row r="15" spans="1:5" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5878,10 +5955,10 @@
     </row>
     <row r="16" spans="1:5" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5889,29 +5966,29 @@
     </row>
     <row r="17" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="39" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -5937,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5950,11 +6027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="56"/>
+      <c r="A1" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -5963,158 +6040,160 @@
     </row>
     <row r="3" spans="1:3" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -6139,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6154,14 +6233,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="56"/>
+      <c r="A1" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -6173,251 +6252,261 @@
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
+      <c r="D4" s="42" t="s">
+        <v>402</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="38">
-        <v>39863</v>
+        <v>40725</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>318</v>
+      <c r="D6" s="42" t="s">
+        <v>403</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="38">
+        <v>40725</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F7" s="38">
+        <v>40663</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="38">
+        <v>40725</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F9" s="38">
+        <v>40725</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="38">
+        <v>40729</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="8" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="38">
         <v>40572</v>
@@ -6425,17 +6514,17 @@
     </row>
     <row r="18" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F18" s="38">
         <v>39953</v>
